--- a/resources/wheels/224 - Мартынов.xlsx
+++ b/resources/wheels/224 - Мартынов.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Колесо 10" sheetId="10" r:id="rId10"/>
     <sheet name="Колесо 11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -691,16 +691,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -995,7 +995,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1005,7 +1007,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1015,7 +1019,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1536,16 +1542,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1746,7 +1752,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1840,7 +1846,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1850,7 +1858,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1860,7 +1870,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2381,16 +2393,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,7 +2601,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.900000000000006</v>
+        <v>52.289000000000001</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2693,7 +2705,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2703,7 +2717,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2713,7 +2729,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3233,16 +3251,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,7 +3461,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3537,7 +3555,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3547,7 +3567,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3557,7 +3579,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4078,16 +4102,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4288,7 +4312,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4382,7 +4406,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4392,7 +4418,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4402,7 +4430,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4923,16 +4953,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5133,7 +5163,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5227,7 +5257,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5237,7 +5269,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5247,7 +5281,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5768,16 +5804,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5978,7 +6014,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6072,7 +6108,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6082,7 +6120,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6092,7 +6132,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6613,16 +6655,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6823,7 +6865,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6917,7 +6959,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6927,7 +6971,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6937,7 +6983,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7458,16 +7506,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7668,7 +7716,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7762,7 +7810,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7772,7 +7822,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7782,7 +7834,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8303,16 +8357,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8513,7 +8567,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8607,7 +8661,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8617,7 +8673,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8627,7 +8685,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9148,16 +9208,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9358,7 +9418,7 @@
       </c>
       <c r="G16" s="19">
         <f>SUM(F16:F100)</f>
-        <v>42.400000000000006</v>
+        <v>49.620000000000005</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9452,7 +9512,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>3.597</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9462,7 +9524,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.573</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9472,7 +9536,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1.05</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
